--- a/2020Data.xlsx
+++ b/2020Data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,164 +394,177 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>eventType</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>placeCount</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pickUpPlaces</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>defense</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>lifted</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>timeTook</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>pickupLocation</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>PowerCellShot</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>1PointSuccess</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>undefined</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>timeTook</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>placeCount</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>3PointSuccess</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2PointSuccess</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>When</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Balanced</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>climbStart</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>climbTime</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>competition</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>mainShootLocation</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>shootPlace1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>pickUpPlaces</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>defense</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>lifted</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>When</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Balanced</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>climbStart</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>climbTime</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>shootPlace2</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>mainShootLocation</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>3PointSuccess</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2PointSuccess</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>competition</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Picked up</t>
+          <t>Finish</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Zero</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>0</v>
+          <t>was attacked</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>lift 0</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -567,16 +580,17 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -584,30 +598,42 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Zero</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Feeder</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
+          <t>was attacked</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>lift 0</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -623,61 +649,58 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>111</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>One</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Starting balls</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>attacked</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>nope</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>lift 1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -691,16 +714,17 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -708,59 +732,64 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>UnBalanced</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v>24</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>111</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -768,49 +797,64 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>91</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>24</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>91</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>111</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -818,40 +862,36 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>91</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Two</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>was attacked</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>shutdown</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>lift 1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -859,61 +899,38 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Trench+Other</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Trench</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>111</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>autonomous</t>
-        </is>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Starting balls</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -927,47 +944,77 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve">0585893377 סקס זמין-
+</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>houston</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
       <c r="E9" t="n">
-        <v>24</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -975,16 +1022,2836 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>היי וואו זה רובוט מדהים, עושה 500 כדורים בשנייה, 400 נקודות</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>444</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>37</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>37</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>37</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>444</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>70</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Feeder</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Trench</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>444</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>147</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>147</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>91</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>91</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>POOPY!!!!!!!!
+STINKY!!!!!!!
+STINKY POO!!!!!!!
+FUNNY!!!!!!!!
+FUNNY POO!!!!!!!!!!!</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>houston</t>
         </is>
       </c>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>91</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>91</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>lift 0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>666</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>26</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>was attacked</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Trench</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>91</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>91</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Two</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Trench</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Trench+Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>444</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>147</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>147</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Floor</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>444</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>64</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>64</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>444</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>70</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>70</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>was attacked</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>lift 0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>444</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>11</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>444</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>11</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>91</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>91</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>91</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>444</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>444</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>147</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>147</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>147</v>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>91</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>91</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>שיהיה לך סרטן בזין
+שיהיה לך סרטן בביצים
+ולא תוכל לזיין ותמות
+אמן כן כיהיה רצון!!!!!!</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>91</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>91</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>91</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>91</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>LOVE YOU ROEKY</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>91</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>91</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Feeder</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>was attacked</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>444</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>11</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>444</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>11</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>111</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>91</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>91</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>444</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>147</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>147</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W33" t="n">
+        <v>147</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>444</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>70</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>70</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Balanced</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
+        <v>70</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>444</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>147</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>147</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>444</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>147</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>147</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>444</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>147</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>147</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="n">
+        <v>147</v>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>111</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>91</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>91</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>יואווווווווו
+כמה כוסית עדי הימלבלוי
+אני מפליץ מרוב התרגשות</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>111</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>91</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>91</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>ITAI GIL IS BIG DADDY UWU</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>111</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>91</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>91</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="n">
+        <v>91</v>
+      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>666</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>111</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>91</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>91</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Two</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Floor</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>was attacked</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Wall+Trench</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>111</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>91</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>91</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>444</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>98</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>98</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>111</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>91</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>91</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Trench</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>444</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>70</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>70</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>111</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>91</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>91</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>444</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>37</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>37</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W48" t="n">
+        <v>37</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>111</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>91</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>91</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W49" t="n">
+        <v>91</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>111</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>91</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>91</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Balanced</t>
+        </is>
+      </c>
+      <c r="W50" t="n">
+        <v>91</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>111</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>91</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>91</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>666</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>26</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>26</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="n">
+        <v>26</v>
+      </c>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>666</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="n">
+        <v>26</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>26</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/2020Data.xlsx
+++ b/2020Data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AD57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,11 @@
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>fortune wheel</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>shootPlace2</t>
         </is>
@@ -581,6 +586,7 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -650,6 +656,7 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -715,6 +722,7 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -780,6 +788,7 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -845,6 +854,7 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -906,6 +916,7 @@
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -956,6 +967,7 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1025,6 +1037,7 @@
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1080,6 +1093,7 @@
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1153,6 +1167,7 @@
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1218,6 +1233,7 @@
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1271,6 +1287,7 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1344,6 +1361,7 @@
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1417,63 +1435,60 @@
         </is>
       </c>
       <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111</v>
+        <v>4590</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Two</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>attacked</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>nope</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>lift 1</t>
-        </is>
-      </c>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>0</v>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1483,27 +1498,20 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>Trench</t>
-        </is>
-      </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Trench+Other</t>
-        </is>
-      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>444</v>
+        <v>4590</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1511,7 +1519,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1525,22 +1533,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Floor</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>attacked</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>shutdown</t>
+          <t>nope</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>lift 2</t>
+          <t>lift 0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1562,70 +1570,75 @@
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Trench</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>no can do</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>autoCell</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Two</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>0</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Starting balls</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -1633,68 +1646,77 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Trench</t>
+        </is>
+      </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Trench+Other</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>autoCell</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Floor</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>64</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Starting balls</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -1702,9 +1724,14 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1714,56 +1741,56 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Zero</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>was attacked</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>lift 0</t>
-        </is>
-      </c>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>0</v>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -1774,16 +1801,17 @@
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="B21" t="n">
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1819,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1805,11 +1833,11 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Picked up</t>
+          <t>Starting balls</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1819,18 +1847,18 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1843,6 +1871,7 @@
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1852,50 +1881,54 @@
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>autoCell</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>was attacked</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>lift 0</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Starting balls</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1908,28 +1941,29 @@
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Climb</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1941,38 +1975,43 @@
       <c r="M23" t="n">
         <v>0</v>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>UnBalanced</t>
-        </is>
-      </c>
-      <c r="W23" t="n">
-        <v>91</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1982,19 +2021,19 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PowerCells</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -2006,7 +2045,11 @@
       <c r="M24" t="n">
         <v>0</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>Low</t>
@@ -2014,12 +2057,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
@@ -2034,16 +2077,17 @@
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2051,7 +2095,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2078,33 +2122,52 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
       <c r="W25" t="n">
-        <v>147</v>
-      </c>
-      <c r="X25" t="inlineStr"/>
+        <v>91</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>91</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
       <c r="E26" t="n">
-        <v>91</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -2115,9 +2178,21 @@
         <v>0</v>
       </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2125,32 +2200,22 @@
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>שיהיה לך סרטן בזין
-שיהיה לך סרטן בביצים
-ולא תוכל לזיין ותמות
-אמן כן כיהיה רצון!!!!!!</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>houston</t>
-        </is>
-      </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2158,11 +2223,11 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PowerCells</t>
+          <t>Climb</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -2175,33 +2240,28 @@
         <v>0</v>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>147</v>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2240,7 +2300,10 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>LOVE YOU ROEKY</t>
+          <t>שיהיה לך סרטן בזין
+שיהיה לך סרטן בביצים
+ולא תוכל לזיין ותמות
+אמן כן כיהיה רצון!!!!!!</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -2251,6 +2314,7 @@
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2272,42 +2336,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>One</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Feeder</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>was attacked</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>nope</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>lift 1</t>
-        </is>
-      </c>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2318,36 +2374,25 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>Wall</t>
-        </is>
-      </c>
+      <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>autonomous</t>
-        </is>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>11</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>autoCell</t>
-        </is>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2357,60 +2402,49 @@
       <c r="M30" t="n">
         <v>0</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Picked up</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>LOVE YOU ROEKY</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>444</v>
+        <v>4590</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2438,12 +2472,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R31" t="inlineStr"/>
@@ -2458,6 +2492,7 @@
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2479,40 +2514,44 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PowerCells</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Feeder</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>was attacked</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -2521,8 +2560,13 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
       <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2532,19 +2576,19 @@
         <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Climb</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2556,38 +2600,43 @@
       <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>UnBalanced</t>
-        </is>
-      </c>
-      <c r="W33" t="n">
-        <v>147</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2597,19 +2646,19 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Climb</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2621,48 +2670,49 @@
       <c r="M34" t="n">
         <v>0</v>
       </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Balanced</t>
-        </is>
-      </c>
-      <c r="W34" t="n">
-        <v>70</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="B35" t="n">
         <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2670,7 +2720,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2689,21 +2739,25 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
@@ -2714,6 +2768,7 @@
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2735,7 +2790,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PowerCells</t>
+          <t>Climb</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2748,33 +2803,38 @@
         <v>0</v>
       </c>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>147</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2784,7 +2844,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2792,7 +2852,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2816,36 +2876,55 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Balanced</t>
+        </is>
+      </c>
       <c r="W37" t="n">
-        <v>147</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B38" t="n">
         <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>91</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
       <c r="E38" t="n">
-        <v>91</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -2856,9 +2935,21 @@
         <v>0</v>
       </c>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -2866,37 +2957,36 @@
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>יואווווווווו
-כמה כוסית עדי הימלבלוי
-אני מפליץ מרוב התרגשות</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>houston</t>
-        </is>
-      </c>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B39" t="n">
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>91</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
       <c r="E39" t="n">
-        <v>91</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2907,9 +2997,21 @@
         <v>0</v>
       </c>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -2917,29 +3019,22 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>ITAI GIL IS BIG DADDY UWU</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>houston</t>
-        </is>
-      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2947,7 +3042,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2971,13 +3066,13 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2985,30 +3080,23 @@
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>666</v>
+        <v>111</v>
       </c>
       <c r="B41" t="n">
         <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>autonomous</t>
-        </is>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>autoCell</t>
-        </is>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -3018,42 +3106,33 @@
       <c r="M41" t="n">
         <v>0</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Picked up</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>יואווווווווו
+כמה כוסית עדי הימלבלוי
+אני מפליץ מרוב התרגשות</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3065,44 +3144,16 @@
       <c r="C42" t="n">
         <v>91</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>teleop</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
         <v>91</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Two</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Floor</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>was attacked</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>lift 2</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>0</v>
@@ -3118,19 +3169,20 @@
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>ITAI GIL IS BIG DADDY UWU</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Wall+Trench</t>
-        </is>
-      </c>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3152,34 +3204,14 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>attacked</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>lift 2</t>
-        </is>
-      </c>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>0</v>
@@ -3190,79 +3222,82 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="n">
+        <v>91</v>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>Wall</t>
-        </is>
-      </c>
+      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>444</v>
+        <v>666</v>
       </c>
       <c r="B44" t="n">
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>attacked</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>nope</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>lift 2</t>
-        </is>
-      </c>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>0</v>
       </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -3270,13 +3305,10 @@
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>Wall</t>
-        </is>
-      </c>
+      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3303,27 +3335,27 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>One</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Floor</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>attacked</t>
+          <t>was attacked</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>nope</t>
+          <t>shutdown</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>lift 1</t>
+          <t>lift 2</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -3343,23 +3375,28 @@
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>Trench</t>
-        </is>
-      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>Wall+Trench</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,44 +3404,48 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PowerCells</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -3412,19 +3453,24 @@
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,44 +3478,48 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PowerCells</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -3477,19 +3527,24 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3497,18 +3552,38 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Climb</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>0</v>
@@ -3519,42 +3594,31 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>UnBalanced</t>
-        </is>
-      </c>
-      <c r="W48" t="n">
-        <v>37</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0</v>
-      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Trench</t>
+        </is>
+      </c>
       <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B49" t="n">
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3562,11 +3626,11 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Climb</t>
+          <t>PowerCells</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3579,37 +3643,38 @@
         <v>0</v>
       </c>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>UnBalanced</t>
-        </is>
-      </c>
-      <c r="W49" t="n">
-        <v>91</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0</v>
-      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3631,7 +3696,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Climb</t>
+          <t>PowerCells</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3644,47 +3709,48 @@
         <v>0</v>
       </c>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Balanced</t>
-        </is>
-      </c>
-      <c r="W50" t="n">
-        <v>91</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0</v>
-      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3692,11 +3758,11 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PowerCells</t>
+          <t>Climb</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3709,43 +3775,48 @@
         <v>0</v>
       </c>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W51" t="n">
+        <v>37</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>666</v>
+        <v>111</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3824,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3780,27 +3851,38 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
       <c r="W52" t="n">
-        <v>26</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
+        <v>91</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>666</v>
+        <v>111</v>
       </c>
       <c r="B53" t="n">
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3808,11 +3890,11 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>PowerCells</t>
+          <t>Climb</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3825,33 +3907,288 @@
         <v>0</v>
       </c>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Balanced</t>
+        </is>
+      </c>
+      <c r="W53" t="n">
+        <v>91</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>111</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>91</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>91</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>666</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>26</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>26</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="n">
+        <v>26</v>
+      </c>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>666</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>26</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>26</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4590</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>6</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/2020Data.xlsx
+++ b/2020Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreenBlitz\PycharmProjects\scouting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF35E4-F215-43E2-9017-F10724B604A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1523653E-BB2A-4FC9-A7C8-89260D47F2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="80">
   <si>
     <t>teamNumber</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>teamPageNumber</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -645,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1051,6 +1054,9 @@
       <c r="T10" t="s">
         <v>49</v>
       </c>
+      <c r="U10" t="s">
+        <v>50</v>
+      </c>
       <c r="W10">
         <v>37</v>
       </c>
@@ -1355,6 +1361,9 @@
       <c r="AA18" t="s">
         <v>59</v>
       </c>
+      <c r="AC18" t="s">
+        <v>79</v>
+      </c>
       <c r="AD18" t="s">
         <v>67</v>
       </c>
@@ -2714,5 +2723,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2020Data.xlsx
+++ b/2020Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreenBlitz\PycharmProjects\scouting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1523653E-BB2A-4FC9-A7C8-89260D47F2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0659418-6E13-49BF-8407-5526DFD1AE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="81">
   <si>
     <t>teamNumber</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>aa</t>
+  </si>
+  <si>
+    <t>rotation control</t>
   </si>
 </sst>
 </file>
@@ -648,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -786,6 +789,9 @@
       <c r="M2">
         <v>0</v>
       </c>
+      <c r="AC2" t="s">
+        <v>80</v>
+      </c>
       <c r="AE2">
         <v>111</v>
       </c>

--- a/2020Data.xlsx
+++ b/2020Data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD71"/>
+  <dimension ref="A1:AD106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,25 +971,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1573</v>
+        <v>4443</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -1001,12 +1001,32 @@
       <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1027,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1035,18 +1055,30 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>Finish</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>was attacked</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>0</v>
@@ -1064,20 +1096,24 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>position control</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1573</v>
+        <v>666</v>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1085,11 +1121,11 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -1101,10 +1137,26 @@
       <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1127,15 +1179,15 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1177,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1185,7 +1237,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1227,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1235,30 +1287,18 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Finish</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>was attacked</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>nope</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>lift 1</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>0</v>
@@ -1276,24 +1316,20 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>position control</t>
-        </is>
-      </c>
+      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4590</v>
+        <v>1573</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1301,38 +1337,18 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>nope</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>lift 0</t>
-        </is>
-      </c>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>0</v>
@@ -1350,28 +1366,20 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>no can do</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>Trench</t>
-        </is>
-      </c>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>666</v>
+        <v>1573</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1379,38 +1387,18 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>One</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>was attacked</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>lift 1</t>
-        </is>
-      </c>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>0</v>
@@ -1430,22 +1418,18 @@
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Trench</t>
-        </is>
-      </c>
+      <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>444</v>
+        <v>4590</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1453,7 +1437,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1467,12 +1451,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Feeder</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>attacked</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1482,7 +1466,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>lift 1</t>
+          <t>lift 0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1502,7 +1486,11 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>no can do</t>
+        </is>
+      </c>
       <c r="AB17" t="inlineStr">
         <is>
           <t>Trench</t>
@@ -1513,13 +1501,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111</v>
+        <v>666</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1527,7 +1515,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1536,27 +1524,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>One</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>attacked</t>
+          <t>was attacked</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>nope</t>
+          <t>shutdown</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>lift 0</t>
+          <t>lift 1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -1577,12 +1565,12 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Trench</t>
+        </is>
+      </c>
       <c r="AD18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1593,56 +1581,56 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>autoCell</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Feeder</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>0</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Picked up</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -1651,62 +1639,70 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Trench</t>
+        </is>
+      </c>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4590</v>
+        <v>111</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>autoCell</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>lift 0</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>0</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Starting balls</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1717,7 +1713,11 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
     </row>
@@ -1729,19 +1729,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PowerCells</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1753,7 +1753,11 @@
       <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>High</t>
@@ -1761,18 +1765,18 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1789,25 +1793,25 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>444</v>
+        <v>4590</v>
       </c>
       <c r="B22" t="n">
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Climb</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1819,22 +1823,32 @@
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="n">
-        <v>37</v>
-      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -1845,19 +1859,27 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>91</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
       <c r="E23" t="n">
-        <v>91</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1868,30 +1890,34 @@
         <v>0</v>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>POOPY!!!!!!!!
-STINKY!!!!!!!
-STINKY POO!!!!!!!
-FUNNY!!!!!!!!
-FUNNY POO!!!!!!!!!!!</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>houston</t>
-        </is>
-      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -1899,13 +1925,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1573</v>
+        <v>444</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1913,11 +1939,11 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>Climb</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1935,10 +1961,16 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>37</v>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -1949,27 +1981,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1573</v>
+        <v>111</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>33</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>teleop</t>
-        </is>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>33</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>teleop</t>
-        </is>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1990,8 +2014,20 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>POOPY!!!!!!!!
+STINKY!!!!!!!
+STINKY POO!!!!!!!
+FUNNY!!!!!!!!
+FUNNY POO!!!!!!!!!!!</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
@@ -1999,13 +2035,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1573</v>
+        <v>4590</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2013,18 +2049,30 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>Finish</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>0</v>
@@ -2042,20 +2090,24 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>rotation control</t>
+        </is>
+      </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111</v>
+        <v>666</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2063,23 +2115,15 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>Finish</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Two</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>attacked</t>
@@ -2087,7 +2131,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>nope</t>
+          <t>shutdown</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2112,28 +2156,24 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>Trench</t>
-        </is>
-      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>position control</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>Trench+Other</t>
-        </is>
-      </c>
+      <c r="AD27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>444</v>
+        <v>666</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,46 +2181,42 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Floor</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>attacked</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>lift 2</t>
-        </is>
-      </c>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>0</v>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2191,23 +2227,19 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+      <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>444</v>
+        <v>666</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2215,7 +2247,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2233,30 +2265,26 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Starting balls</t>
+          <t>Picked up</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -2271,25 +2299,25 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111</v>
+        <v>666</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>autoCell</t>
+          <t>Climb</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2299,39 +2327,35 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>64</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Starting balls</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W30" t="n">
+        <v>129</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
@@ -2341,13 +2365,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>444</v>
+        <v>4590</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,41 +2379,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Zero</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>was attacked</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>lift 0</t>
-        </is>
-      </c>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2397,10 +2401,16 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="n">
+        <v>133</v>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -2411,25 +2421,25 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>444</v>
+        <v>1573</v>
       </c>
       <c r="B32" t="n">
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>autoCell</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2441,32 +2451,12 @@
       <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Picked up</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -2481,25 +2471,25 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>444</v>
+        <v>1573</v>
       </c>
       <c r="B33" t="n">
         <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>autoCell</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2511,26 +2501,10 @@
       <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Starting balls</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2547,13 +2521,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111</v>
+        <v>1573</v>
       </c>
       <c r="B34" t="n">
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2561,11 +2535,11 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Climb</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2583,27 +2557,11 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>UnBalanced</t>
-        </is>
-      </c>
-      <c r="W34" t="n">
-        <v>91</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -2613,25 +2571,25 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>444</v>
+        <v>4443</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>PowerCells</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2643,7 +2601,11 @@
       <c r="M35" t="n">
         <v>0</v>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr">
         <is>
           <t>Low</t>
@@ -2656,7 +2618,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R35" t="inlineStr"/>
@@ -2675,13 +2637,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="B36" t="n">
         <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2689,18 +2651,38 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Climb</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Two</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>0</v>
@@ -2711,44 +2693,74 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
+      <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="n">
-        <v>147</v>
-      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Trench</t>
+        </is>
+      </c>
       <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Trench+Other</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B37" t="n">
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>91</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
       <c r="E37" t="n">
-        <v>91</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Floor</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>0</v>
@@ -2764,45 +2776,38 @@
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>שיהיה לך סרטן בזין
-שיהיה לך סרטן בביצים
-ולא תוכל לזיין ותמות
-אמן כן כיהיה רצון!!!!!!</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>houston</t>
-        </is>
-      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B38" t="n">
         <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PowerCells</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2814,24 +2819,32 @@
       <c r="M38" t="n">
         <v>0</v>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
@@ -2852,13 +2865,21 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>91</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
       <c r="E39" t="n">
-        <v>91</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
+        <v>64</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2866,29 +2887,41 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+        <v>64</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>LOVE YOU ROEKY</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>houston</t>
-        </is>
-      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
@@ -2896,13 +2929,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4590</v>
+        <v>444</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,42 +2943,46 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>autoCell</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>was attacked</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>lift 0</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>0</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Picked up</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -2962,25 +2999,25 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1573</v>
+        <v>444</v>
       </c>
       <c r="B41" t="n">
         <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2992,12 +3029,32 @@
       <c r="M41" t="n">
         <v>0</v>
       </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -3012,25 +3069,25 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1573</v>
+        <v>444</v>
       </c>
       <c r="B42" t="n">
         <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -3042,10 +3099,26 @@
       <c r="M42" t="n">
         <v>0</v>
       </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -3080,34 +3153,14 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>One</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Feeder</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>was attacked</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>nope</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>lift 1</t>
-        </is>
-      </c>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>0</v>
@@ -3118,20 +3171,32 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W43" t="n">
+        <v>91</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Wall</t>
-        </is>
-      </c>
+      <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -3142,19 +3207,19 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>autoCell</t>
+          <t>PowerCells</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -3166,14 +3231,10 @@
       <c r="M44" t="n">
         <v>0</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Picked up</t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3181,17 +3242,13 @@
           <t>4</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -3212,19 +3269,19 @@
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>autoCell</t>
+          <t>Climb</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3236,32 +3293,22 @@
       <c r="M45" t="n">
         <v>0</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Picked up</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="n">
+        <v>147</v>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
@@ -3272,25 +3319,25 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111</v>
+        <v>666</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PowerCells</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3302,7 +3349,11 @@
       <c r="M46" t="n">
         <v>0</v>
       </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr">
         <is>
           <t>High</t>
@@ -3316,12 +3367,12 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3338,25 +3389,25 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>444</v>
+        <v>4590</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Climb</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3368,33 +3419,37 @@
       <c r="M47" t="n">
         <v>0</v>
       </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>UnBalanced</t>
-        </is>
-      </c>
-      <c r="W47" t="n">
-        <v>147</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0</v>
-      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
@@ -3404,13 +3459,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>444</v>
+        <v>4590</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,11 +3473,11 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Climb</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3434,33 +3489,33 @@
       <c r="M48" t="n">
         <v>0</v>
       </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Balanced</t>
-        </is>
-      </c>
-      <c r="W48" t="n">
-        <v>70</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0</v>
-      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
@@ -3470,13 +3525,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>444</v>
+        <v>4590</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3484,7 +3539,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3508,12 +3563,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="R49" t="inlineStr"/>
@@ -3532,13 +3587,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="B50" t="n">
         <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3546,7 +3601,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3575,7 +3630,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R50" t="inlineStr"/>
@@ -3594,27 +3649,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>147</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>teleop</t>
-        </is>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>147</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Climb</t>
-        </is>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -3630,19 +3677,24 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="n">
-        <v>147</v>
-      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>שיהיה לך סרטן בזין
+שיהיה לך סרטן בביצים
+ולא תוכל לזיין ותמות
+אמן כן כיהיה רצון!!!!!!</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
@@ -3650,19 +3702,27 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111</v>
+        <v>1573</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>91</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
       <c r="E52" t="n">
-        <v>91</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -3683,18 +3743,8 @@
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>יואווווווווו
-כמה כוסית עדי הימלבלוי
-אני מפליץ מרוב התרגשות</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>houston</t>
-        </is>
-      </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
@@ -3702,19 +3752,27 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111</v>
+        <v>1573</v>
       </c>
       <c r="B53" t="n">
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>91</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
       <c r="E53" t="n">
-        <v>91</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -3735,16 +3793,8 @@
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>ITAI GIL IS BIG DADDY UWU</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>houston</t>
-        </is>
-      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
@@ -3760,19 +3810,11 @@
       <c r="C54" t="n">
         <v>91</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>teleop</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
         <v>91</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Climb</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -3788,19 +3830,21 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="n">
-        <v>91</v>
-      </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>LOVE YOU ROEKY</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
@@ -3814,19 +3858,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>autoCell</t>
+          <t>Climb</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3838,35 +3882,27 @@
       <c r="M55" t="n">
         <v>0</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Picked up</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3901,12 +3937,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Two</t>
+          <t>One</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Floor</t>
+          <t>Feeder</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3916,12 +3952,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>shutdown</t>
+          <t>nope</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>lift 2</t>
+          <t>lift 1</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
@@ -3942,76 +3978,72 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr">
-        <is>
-          <t>Wall+Trench</t>
-        </is>
-      </c>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B57" t="n">
         <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>attacked</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>lift 2</t>
-        </is>
-      </c>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>0</v>
       </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -4020,11 +4052,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>Wall</t>
-        </is>
-      </c>
+      <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
     </row>
@@ -4036,54 +4064,50 @@
         <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>attacked</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>nope</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>lift 2</t>
-        </is>
-      </c>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>0</v>
       </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -4094,11 +4118,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>Wall</t>
-        </is>
-      </c>
+      <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
     </row>
@@ -4122,44 +4142,40 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>One</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>attacked</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>nope</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>lift 1</t>
-        </is>
-      </c>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -4169,11 +4185,7 @@
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Trench</t>
-        </is>
-      </c>
+      <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -4184,7 +4196,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4192,11 +4204,11 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PowerCells</t>
+          <t>Climb</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -4209,32 +4221,32 @@
         <v>0</v>
       </c>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W60" t="n">
+        <v>147</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
@@ -4244,13 +4256,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B61" t="n">
         <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4258,11 +4270,11 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PowerCells</t>
+          <t>Climb</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -4275,32 +4287,32 @@
         <v>0</v>
       </c>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Balanced</t>
+        </is>
+      </c>
+      <c r="W61" t="n">
+        <v>70</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
@@ -4316,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,11 +4336,11 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Climb</t>
+          <t>PowerCells</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -4341,32 +4353,28 @@
         <v>0</v>
       </c>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>UnBalanced</t>
-        </is>
-      </c>
-      <c r="W62" t="n">
-        <v>37</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0</v>
-      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
@@ -4376,13 +4384,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B63" t="n">
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4390,11 +4398,11 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Climb</t>
+          <t>PowerCells</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -4407,32 +4415,28 @@
         <v>0</v>
       </c>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>UnBalanced</t>
-        </is>
-      </c>
-      <c r="W63" t="n">
-        <v>91</v>
-      </c>
-      <c r="X63" t="n">
-        <v>0</v>
-      </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
@@ -4442,13 +4446,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B64" t="n">
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4456,7 +4460,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -4483,22 +4487,12 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>Balanced</t>
-        </is>
-      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
       <c r="W64" t="n">
-        <v>91</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
@@ -4516,19 +4510,11 @@
       <c r="C65" t="n">
         <v>91</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>teleop</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
         <v>91</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>PowerCells</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -4539,21 +4525,9 @@
         <v>0</v>
       </c>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -4561,8 +4535,18 @@
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>יואווווווווו
+כמה כוסית עדי הימלבלוי
+אני מפליץ מרוב התרגשות</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
@@ -4576,19 +4560,19 @@
         <v>3</v>
       </c>
       <c r="C66" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Climb</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -4600,22 +4584,36 @@
       <c r="M66" t="n">
         <v>0</v>
       </c>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="n">
-        <v>26</v>
-      </c>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
@@ -4632,19 +4630,19 @@
         <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PowerCells</t>
+          <t>autoCell</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -4656,24 +4654,32 @@
       <c r="M67" t="n">
         <v>0</v>
       </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -4691,59 +4697,51 @@
         <v>4590</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>autoCell</t>
+          <t>Finish</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>3</v>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Starting balls</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -4751,20 +4749,24 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>rotation control</t>
+        </is>
+      </c>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1573</v>
+        <v>666</v>
       </c>
       <c r="B69" t="n">
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4772,7 +4774,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4790,7 +4792,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Starting balls</t>
+          <t>Picked up</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4824,32 +4826,44 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1573</v>
+        <v>4590</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>Finish</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>0</v>
@@ -4867,32 +4881,36 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1573</v>
+        <v>666</v>
       </c>
       <c r="B71" t="n">
         <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>teleop</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>teleop</t>
+          <t>PowerCells</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -4905,9 +4923,21 @@
         <v>0</v>
       </c>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -4922,6 +4952,2248 @@
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
     </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>111</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" t="n">
+        <v>91</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>91</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="n">
+        <v>91</v>
+      </c>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>4590</v>
+      </c>
+      <c r="B73" t="n">
+        <v>10</v>
+      </c>
+      <c r="C73" t="n">
+        <v>29</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>29</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>ואוווווווווווווווווו</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>nokia</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>111</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>91</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>91</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>ITAI GIL IS BIG DADDY UWU</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>666</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>126</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>126</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>666</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>147</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>147</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>lift 0</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>position control</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4590</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4443</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C78" t="n">
+        <v>20</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Balanced</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>111</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>91</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>91</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Two</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Floor</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>was attacked</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>Wall+Trench</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>111</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>91</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>91</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>444</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>98</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>98</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>111</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>91</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>91</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Trench</t>
+        </is>
+      </c>
+      <c r="AD82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>444</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>70</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>70</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>111</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>91</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>91</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>444</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="n">
+        <v>37</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>37</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W85" t="n">
+        <v>37</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>111</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>91</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>91</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>UnBalanced</t>
+        </is>
+      </c>
+      <c r="W86" t="n">
+        <v>91</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>111</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>91</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>91</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Balanced</t>
+        </is>
+      </c>
+      <c r="W87" t="n">
+        <v>91</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>111</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>91</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>91</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4590</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>6</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>666</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>7</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>7</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1573</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>7</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>4590</v>
+      </c>
+      <c r="B92" t="n">
+        <v>10</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>4590</v>
+      </c>
+      <c r="B93" t="n">
+        <v>10</v>
+      </c>
+      <c r="C93" t="n">
+        <v>136</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>144</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>8</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Balanced</t>
+        </is>
+      </c>
+      <c r="W93" t="n">
+        <v>136</v>
+      </c>
+      <c r="X93" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>666</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>26</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>26</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>PowerCells</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>666</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>26</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>26</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="n">
+        <v>26</v>
+      </c>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1573</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1573</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>666</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Starting balls</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>4590</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+      <c r="C99" t="n">
+        <v>8</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>8</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>4443</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>4443</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6</v>
+      </c>
+      <c r="C101" t="n">
+        <v>155</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>155</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>lift 2</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>rotation control</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>autonomous</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>autoCell</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Picked up</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>4443</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C103" t="n">
+        <v>127</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>127</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>attacked</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>lift 1</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>4590</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6</v>
+      </c>
+      <c r="C104" t="n">
+        <v>133</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>133</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Balanced</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>4443</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6</v>
+      </c>
+      <c r="C105" t="n">
+        <v>127</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>teleop</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>127</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Climb</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Balanced</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>4590</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6</v>
+      </c>
+      <c r="C106" t="n">
+        <v>86</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>86</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>אוי אוי אוי חרא נהגים מפילים כדורים נכבים כשדופקים אותם מאחורה</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
